--- a/log_stat/test.xlsx
+++ b/log_stat/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="237">
   <si>
     <t>team1</t>
   </si>
@@ -22,6 +22,9 @@
     <t>team2</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>wins_team_1</t>
   </si>
   <si>
@@ -31,7 +34,16 @@
     <t>draws</t>
   </si>
   <si>
-    <t>AFC Blackburn</t>
+    <t>AC Le Havre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>AS Saint-Étienne</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
   <si>
     <t>Ajax</t>
@@ -43,9 +55,36 @@
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>América Mineiro</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>Arsenal FC</t>
+  </si>
+  <si>
+    <t>Atalanta BC</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Athletico-PR</t>
+  </si>
+  <si>
     <t>Atlas</t>
   </si>
   <si>
@@ -55,63 +94,186 @@
     <t>Atlético de Madrid</t>
   </si>
   <si>
+    <t>Atlético-GO</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
+    <t>Avaí FC</t>
+  </si>
+  <si>
     <t>Bahia</t>
   </si>
   <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Başakşehir FK</t>
+  </si>
+  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
+    <t>Besiktas JK</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Botafogo FC</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
+    <t>Brentford FC</t>
+  </si>
+  <si>
+    <t>CD Palestino</t>
+  </si>
+  <si>
+    <t>CF Monterrey</t>
+  </si>
+  <si>
     <t>CSD Colo Colo</t>
   </si>
   <si>
     <t>Cagliari Calcio</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cangzhou Lions</t>
+  </si>
+  <si>
     <t>Caracas F.C.</t>
   </si>
   <si>
-    <t>Caykur Rizespor</t>
-  </si>
-  <si>
     <t>Ceará SC</t>
   </si>
   <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>Chelsea FC</t>
   </si>
   <si>
+    <t>Chongqing LJ Ath</t>
+  </si>
+  <si>
+    <t>Club Brugge KV</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
+    <t>Cruz Azul</t>
+  </si>
+  <si>
+    <t>Crystal Palace FC</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Dalian Pro</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
+    <t>Dynamo Moscow</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
     <t>England</t>
   </si>
   <si>
+    <t>Everton FC</t>
+  </si>
+  <si>
+    <t>Eyüpspor</t>
+  </si>
+  <si>
     <t>FC Arouca</t>
   </si>
   <si>
     <t>FC Barcelona</t>
   </si>
   <si>
+    <t>FC Empoli</t>
+  </si>
+  <si>
+    <t>FC Famalicão</t>
+  </si>
+  <si>
+    <t>FC Khimki</t>
+  </si>
+  <si>
+    <t>FC Krasnodar</t>
+  </si>
+  <si>
+    <t>FC Metz</t>
+  </si>
+  <si>
+    <t>FC Nantes</t>
+  </si>
+  <si>
     <t>FC Porto</t>
   </si>
   <si>
+    <t>FC Twente</t>
+  </si>
+  <si>
+    <t>FC Utrecht</t>
+  </si>
+  <si>
+    <t>FCV Dender</t>
+  </si>
+  <si>
+    <t>Fenerbahçe SK</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
@@ -121,160 +283,448 @@
     <t>France</t>
   </si>
   <si>
+    <t>Fulham FC</t>
+  </si>
+  <si>
     <t>Gamba Osaka</t>
   </si>
   <si>
+    <t>Gaziantep FK</t>
+  </si>
+  <si>
+    <t>Genoa CFC</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
+    <t>Guangzhou City</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>H.Consa.Sapporo</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
     <t>Internacional</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>KVC Westerlo</t>
+  </si>
+  <si>
+    <t>Kasımpaşa</t>
+  </si>
+  <si>
+    <t>Kawasaki Frontale</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Liverpool FC</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Man. United</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>SL Benfica</t>
+  </si>
+  <si>
+    <t>SS Lazio</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
+    <t>Shandong Taishan</t>
+  </si>
+  <si>
+    <t>Shanghai Port</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Stade Brestois</t>
+  </si>
+  <si>
+    <t>Tianjin Jinmen Tiger</t>
+  </si>
+  <si>
+    <t>Tokushima Vortis</t>
+  </si>
+  <si>
+    <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>Stade Rennais FC</t>
+  </si>
+  <si>
     <t>LOSC Lille</t>
   </si>
   <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>Man. United</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
-    <t>Royal Antwerp FC</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Thailand</t>
+    <t>RC Lens</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>CSKA Moscow</t>
+  </si>
+  <si>
+    <t>Krylya Sovetov Samara</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Göztepe</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Pumas</t>
+  </si>
+  <si>
+    <t>Guarani FC</t>
+  </si>
+  <si>
+    <t>FC Strasbourg</t>
+  </si>
+  <si>
+    <t>OGC Nice</t>
+  </si>
+  <si>
+    <t>RC Strasbourg Alsace</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Torino FC</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Mirassol FC</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Stade de Reims</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Clube de Regatas Brasil</t>
+  </si>
+  <si>
+    <t>Southampton FC</t>
+  </si>
+  <si>
+    <t>Huachipato FC</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Tigres</t>
+  </si>
+  <si>
+    <t>US Lecce</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Qingdao FC</t>
+  </si>
+  <si>
+    <t>Dep. La Guaira</t>
+  </si>
+  <si>
+    <t>Dep. Táchira</t>
+  </si>
+  <si>
+    <t>Standard Liège</t>
+  </si>
+  <si>
+    <t>Henan Songshan</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Paysandu SC</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Hebei FC</t>
+  </si>
+  <si>
+    <t>Sint-Truiden VV</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Necaxa</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Spartak Moscow</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Fatih Karagümrük</t>
+  </si>
+  <si>
+    <t>Rio Ave FC</t>
+  </si>
+  <si>
+    <t>RC Celta</t>
+  </si>
+  <si>
+    <t>Real Madrid CF</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia CF</t>
+  </si>
+  <si>
+    <t>Villarreal CF</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>GD Estoril Praia</t>
+  </si>
+  <si>
+    <t>FC Rostov</t>
+  </si>
+  <si>
+    <t>Rubin Kazan</t>
+  </si>
+  <si>
+    <t>Sporting Braga</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>RSC Charleroi</t>
+  </si>
+  <si>
+    <t>Galatasaray SK</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Venezia FC</t>
+  </si>
+  <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Yokohama F･M</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht</t>
   </si>
   <si>
     <t>Tottenham Hotspur</t>
   </si>
   <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>CSKA Moscow</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Guadalajara</t>
-  </si>
-  <si>
-    <t>Atlético-GO</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Shandong Taishan</t>
-  </si>
-  <si>
-    <t>Tianjin Jinmen Tiger</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Universidad Católica</t>
-  </si>
-  <si>
-    <t>US Lecce</t>
-  </si>
-  <si>
-    <t>Dep. Táchira</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Rio Ave FC</t>
-  </si>
-  <si>
-    <t>RC Celta</t>
-  </si>
-  <si>
-    <t>Real Madrid CF</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Sporting Braga</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Grêmio</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Kawasaki Frontale</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
-    <t>Paris Saint-Germain</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
+    <t>Stuttgart</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Union Saint Gilloise</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>UD Las Palmas</t>
+  </si>
+  <si>
+    <t>Urawa Red Diamonds</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>SSC Napoli</t>
+  </si>
+  <si>
+    <t>Zhejiang Professional F.C.</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
+    <t>Unión Española</t>
   </si>
 </sst>
 </file>
@@ -632,13 +1082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,19 +1104,22 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -674,28 +1127,34 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -703,19 +1162,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -723,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -734,8 +1196,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -743,10 +1208,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -754,119 +1219,137 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -874,79 +1357,91 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -954,79 +1449,91 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1034,239 +1541,275 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1274,19 +1817,22 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1294,39 +1840,45 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1334,79 +1886,91 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1414,19 +1978,22 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1434,179 +2001,206 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1614,65 +2208,3987 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>195</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" t="s">
+        <v>198</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" t="s">
+        <v>199</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" t="s">
+        <v>200</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" t="s">
+        <v>124</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" t="s">
+        <v>139</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" t="s">
+        <v>211</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" t="s">
+        <v>142</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" t="s">
+        <v>212</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" t="s">
+        <v>213</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
         <v>86</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="C156" t="s">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" t="s">
+        <v>95</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" t="s">
+        <v>121</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" t="s">
+        <v>167</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>91</v>
+      </c>
+      <c r="C166" t="s">
+        <v>215</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>92</v>
+      </c>
+      <c r="C167" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>93</v>
+      </c>
+      <c r="C169" t="s">
+        <v>118</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" t="s">
+        <v>191</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>94</v>
+      </c>
+      <c r="C173" t="s">
+        <v>122</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" t="s">
+        <v>158</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175" t="s">
+        <v>217</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" t="s">
+        <v>218</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" t="s">
+        <v>219</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>99</v>
+      </c>
+      <c r="C178" t="s">
+        <v>220</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>100</v>
+      </c>
+      <c r="C179" t="s">
+        <v>116</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>101</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>102</v>
+      </c>
+      <c r="C181" t="s">
+        <v>221</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>103</v>
+      </c>
+      <c r="C182" t="s">
+        <v>118</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" t="s">
+        <v>121</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>103</v>
+      </c>
+      <c r="C184" t="s">
+        <v>166</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" t="s">
+        <v>167</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" t="s">
+        <v>114</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>106</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" t="s">
+        <v>109</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>219</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>109</v>
+      </c>
+      <c r="C191" t="s">
+        <v>133</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>110</v>
+      </c>
+      <c r="C192" t="s">
+        <v>164</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>111</v>
+      </c>
+      <c r="C193" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>114</v>
+      </c>
+      <c r="C196" t="s">
+        <v>124</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>115</v>
+      </c>
+      <c r="C197" t="s">
+        <v>226</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>116</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>117</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" t="s">
+        <v>121</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" t="s">
+        <v>166</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" t="s">
+        <v>228</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" t="s">
+        <v>229</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>121</v>
+      </c>
+      <c r="C204" t="s">
+        <v>166</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>121</v>
+      </c>
+      <c r="C205" t="s">
+        <v>167</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>122</v>
+      </c>
+      <c r="C206" t="s">
+        <v>124</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>123</v>
+      </c>
+      <c r="C207" t="s">
+        <v>124</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>123</v>
+      </c>
+      <c r="C208" t="s">
+        <v>130</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" t="s">
+        <v>130</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>125</v>
+      </c>
+      <c r="C210" t="s">
+        <v>230</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>126</v>
+      </c>
+      <c r="C211" t="s">
+        <v>231</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" t="s">
+        <v>232</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>128</v>
+      </c>
+      <c r="C213" t="s">
+        <v>233</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" t="s">
+        <v>191</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>130</v>
+      </c>
+      <c r="C215" t="s">
+        <v>204</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" t="s">
+        <v>234</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217" t="s">
+        <v>217</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>133</v>
+      </c>
+      <c r="C218" t="s">
+        <v>165</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>134</v>
+      </c>
+      <c r="C219" t="s">
+        <v>170</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>135</v>
+      </c>
+      <c r="C220" t="s">
+        <v>234</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>136</v>
+      </c>
+      <c r="C221" t="s">
+        <v>235</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>137</v>
+      </c>
+      <c r="C222" t="s">
+        <v>236</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
